--- a/Front/pages/resources/contacts.xlsx
+++ b/Front/pages/resources/contacts.xlsx
@@ -512,12 +512,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nuevos</t>
+          <t>Baneados</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/Front/pages/resources/contacts.xlsx
+++ b/Front/pages/resources/contacts.xlsx
@@ -512,12 +512,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Baneados</t>
+          <t>Nuevos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
     </row>

--- a/Front/pages/resources/contacts.xlsx
+++ b/Front/pages/resources/contacts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -490,12 +490,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nuevos</t>
+          <t>Ventas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -512,12 +512,78 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Ventas</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Claudia Ramirez</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>555-2135</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Nuevos</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SI</t>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Gabriela Ibarra</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>555-7717</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Nuevos</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Daniel Sanchez</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>555-5588</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Baneados</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/Front/pages/resources/contacts.xlsx
+++ b/Front/pages/resources/contacts.xlsx
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
     </row>

--- a/Front/pages/resources/contacts.xlsx
+++ b/Front/pages/resources/contacts.xlsx
@@ -468,12 +468,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nuevos</t>
+          <t>Otra</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
     </row>
